--- a/sample_data/sample_data_2021-04.xlsx
+++ b/sample_data/sample_data_2021-04.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -630,7 +630,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
